--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Mmp12-Plaur.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Mmp12-Plaur.xlsx
@@ -528,16 +528,16 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.5006910000000001</v>
+        <v>0.007057333333333333</v>
       </c>
       <c r="H2">
-        <v>1.502073</v>
+        <v>0.021172</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>56.98117766666667</v>
+        <v>2.843949</v>
       </c>
       <c r="N2">
-        <v>170.943533</v>
+        <v>8.531846999999999</v>
       </c>
       <c r="O2">
-        <v>0.952030123851636</v>
+        <v>0.4976240243095911</v>
       </c>
       <c r="P2">
-        <v>0.9520301238516359</v>
+        <v>0.4976240243095912</v>
       </c>
       <c r="Q2">
-        <v>28.52996282710101</v>
+        <v>0.020070696076</v>
       </c>
       <c r="R2">
-        <v>256.769665443909</v>
+        <v>0.180636264684</v>
       </c>
       <c r="S2">
-        <v>0.952030123851636</v>
+        <v>0.4976240243095911</v>
       </c>
       <c r="T2">
-        <v>0.9520301238516359</v>
+        <v>0.4976240243095912</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,16 +590,16 @@
         <v>23</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.5006910000000001</v>
+        <v>0.007057333333333333</v>
       </c>
       <c r="H3">
-        <v>1.502073</v>
+        <v>0.021172</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -620,22 +620,22 @@
         <v>7.550157</v>
       </c>
       <c r="O3">
-        <v>0.04204883786863874</v>
+        <v>0.4403664892852895</v>
       </c>
       <c r="P3">
-        <v>0.04204883786863874</v>
+        <v>0.4403664892852897</v>
       </c>
       <c r="Q3">
-        <v>1.260098552829</v>
+        <v>0.01776132488933333</v>
       </c>
       <c r="R3">
-        <v>11.340886975461</v>
+        <v>0.159851924004</v>
       </c>
       <c r="S3">
-        <v>0.04204883786863874</v>
+        <v>0.4403664892852895</v>
       </c>
       <c r="T3">
-        <v>0.04204883786863874</v>
+        <v>0.4403664892852897</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,16 +652,16 @@
         <v>24</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.5006910000000001</v>
+        <v>0.007057333333333333</v>
       </c>
       <c r="H4">
-        <v>1.502073</v>
+        <v>0.021172</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.3543876666666667</v>
+        <v>0.3543876666666666</v>
       </c>
       <c r="N4">
         <v>1.063163</v>
       </c>
       <c r="O4">
-        <v>0.005921038279725253</v>
+        <v>0.06200948640511928</v>
       </c>
       <c r="P4">
-        <v>0.005921038279725253</v>
+        <v>0.0620094864051193</v>
       </c>
       <c r="Q4">
-        <v>0.177438715211</v>
+        <v>0.002501031892888888</v>
       </c>
       <c r="R4">
-        <v>1.596948436899</v>
+        <v>0.022509287036</v>
       </c>
       <c r="S4">
-        <v>0.005921038279725253</v>
+        <v>0.06200948640511928</v>
       </c>
       <c r="T4">
-        <v>0.005921038279725253</v>
+        <v>0.0620094864051193</v>
       </c>
     </row>
   </sheetData>
